--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303566\eclipse-workspace\IdentifyNew_Bikes_Hackathon\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2308397\eclipse-workspace\CAS_Project\IdentifyNewBikes_Hackathon-main\IdentifyNewBikes_Hackathon-main\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0057222-364F-4246-B16B-B64DB2F2C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BDEA1C-9C5A-4226-BCE5-4FFF41192722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="2810" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpcomingBike" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="39">
   <si>
     <t>BikeName</t>
   </si>
@@ -39,15 +39,18 @@
     <t>330000</t>
   </si>
   <si>
+    <t>Launch Date : 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda Activa Electric</t>
+  </si>
+  <si>
+    <t>110000</t>
+  </si>
+  <si>
     <t>Launch Date : Mar 2024</t>
   </si>
   <si>
-    <t>Honda Activa Electric</t>
-  </si>
-  <si>
-    <t>110000</t>
-  </si>
-  <si>
     <t>Honda Forza 350</t>
   </si>
   <si>
@@ -90,6 +93,12 @@
     <t>Honda Rebel 300</t>
   </si>
   <si>
+    <t>PopularModelsList</t>
+  </si>
+  <si>
+    <t>Maruti 800</t>
+  </si>
+  <si>
     <t>Maruti Swift Dzire</t>
   </si>
   <si>
@@ -114,82 +123,22 @@
     <t>Mahindra XUV500</t>
   </si>
   <si>
-    <t>PopularModelsList</t>
-  </si>
-  <si>
-    <t>Maruti 800</t>
-  </si>
-  <si>
     <t>Couldn’t find your Google Account</t>
   </si>
   <si>
-    <t>Launch Date : 30 Mar 2024</t>
-  </si>
-  <si>
-    <t>Hero Xoom 125R</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>Hero Xoom 160</t>
-  </si>
-  <si>
-    <t>145000</t>
-  </si>
-  <si>
-    <t>Hero Xtreme 200R</t>
-  </si>
-  <si>
-    <t>135000</t>
-  </si>
-  <si>
-    <t>Hero Xoom 125</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>Hero Xtreme 210R</t>
-  </si>
-  <si>
-    <t>160000</t>
-  </si>
-  <si>
-    <t>Launch Date : Oct 2024</t>
-  </si>
-  <si>
-    <t>Hero XPulse 210</t>
-  </si>
-  <si>
-    <t>190000</t>
-  </si>
-  <si>
-    <t>Hero Adventure Scooter</t>
-  </si>
-  <si>
-    <t>150000</t>
-  </si>
-  <si>
-    <t>Launch Date : Nov 2024</t>
-  </si>
-  <si>
-    <t>Hero XPulse 400</t>
-  </si>
-  <si>
-    <t>270000</t>
-  </si>
-  <si>
-    <t>Launch Date : Jan 2025</t>
-  </si>
-  <si>
-    <t>Hero Xtreme 400S</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>Hero eMaestro</t>
+    <t>Expected Launch Date : 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Apr 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jun 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Unrevealed</t>
   </si>
 </sst>
 </file>
@@ -542,15 +491,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.81640625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.81640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -572,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -583,95 +534,73 @@
         <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -684,59 +613,62 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.7265625"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -749,14 +681,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7265625"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
